--- a/insured_issued_age/generate_features_automatically/female_features.xlsx
+++ b/insured_issued_age/generate_features_automatically/female_features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="142">
   <si>
     <t>Whole life</t>
   </si>
@@ -127,11 +127,10 @@
     3- 2   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 34:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 28)
-    2- ('Accidental Death', 27)
-    3- ('Acc. Hospital', 27)
-    4- ('Adult Disease Hospital', 1)
-• Average number of riders purchased with this policy is 1.9761904762
+    1- ('Sickness Hospital', 25)
+    2- ('Acc. Hospital', 24)
+    3- ('Accidental Death', 24)
+• Average number of riders purchased with this policy is 2.1470588235
     </t>
   </si>
   <si>
@@ -159,12 +158,12 @@
     3- 3   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 122:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 64)
-    2- ('Sickness Hospital', 54)
-    3- ('Acc. Hospital', 49)
-    4- ('M.I.P rider', 3)
-    5- ('Term rider', 2)
-• Average number of riders purchased with this policy is 1.384
+    1- ('Accidental Death', 62)
+    2- ('Sickness Hospital', 52)
+    3- ('Acc. Hospital', 47)
+    4- ('Term rider', 3)
+    5- ('M.I.P rider', 3)
+• Average number of riders purchased with this policy is 1.3770491803
     </t>
   </si>
   <si>
@@ -193,12 +192,12 @@
     3- 2   (count 3)
 • Number of customers charged with extra premium, based on high risk, is 271:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 128)
-    2- ('Accidental Death', 126)
-    3- ('Acc. Hospital', 121)
-    4- ('M.I.P rider', 8)
-    5- ('Inc. Term rider', 5)
-• Average number of riders purchased with this policy is 1.4558823529
+    1- ('Sickness Hospital', 132)
+    2- ('Accidental Death', 128)
+    3- ('Acc. Hospital', 126)
+    4- ('Inc. Term rider', 5)
+    5- ('M.I.P rider', 4)
+• Average number of riders purchased with this policy is 1.4833948339
     </t>
   </si>
   <si>
@@ -227,12 +226,12 @@
     3- 2   (count 5)
 • Number of customers charged with extra premium, based on high risk, is 624:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 278)
-    2- ('Acc. Hospital', 253)
-    3- ('Accidental Death', 215)
+    1- ('Sickness Hospital', 276)
+    2- ('Acc. Hospital', 254)
+    3- ('Accidental Death', 212)
     4- ('Term rider', 19)
     5- ('M.I.P rider', 8)
-• Average number of riders purchased with this policy is 1.2560386473
+• Average number of riders purchased with this policy is 1.25
     </t>
   </si>
   <si>
@@ -261,12 +260,12 @@
     3- 2   (count 10)
 • Number of customers charged with extra premium, based on high risk, is 935:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 324)
-    2- ('Acc. Hospital', 307)
-    3- ('Accidental Death', 164)
-    4- ('Term rider', 8)
-    5- ('Adult Disease Hospital', 5)
-• Average number of riders purchased with this policy is 0.8963616318
+    1- ('Sickness Hospital', 335)
+    2- ('Acc. Hospital', 319)
+    3- ('Accidental Death', 169)
+    4- ('Inc. Term rider', 11)
+    5- ('Term rider', 8)
+• Average number of riders purchased with this policy is 0.913368984
     </t>
   </si>
   <si>
@@ -295,12 +294,12 @@
     3- 2   (count 8)
 • Number of customers charged with extra premium, based on high risk, is 434:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 62)
-    2- ('Acc. Hospital', 56)
-    3- ('Accidental Death', 23)
-    4- ('Term rider', 2)
+    1- ('Sickness Hospital', 71)
+    2- ('Acc. Hospital', 63)
+    3- ('Accidental Death', 29)
+    4- ('Inc. Dec. Term rider', 2)
     5- ('Adult Disease Hospital', 1)
-• Average number of riders purchased with this policy is 0.3468899522
+• Average number of riders purchased with this policy is 0.3847926267
     </t>
   </si>
   <si>
@@ -329,12 +328,12 @@
     3- 2   (count 19)
 • Number of customers charged with extra premium, based on high risk, is 995:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 73)
-    2- ('Acc. Hospital', 70)
-    3- ('Accidental Death', 3)
-    4- ('Term rider', 2)
-    5- ('Inc. Term rider', 2)
-• Average number of riders purchased with this policy is 0.1584984359
+    1- ('Sickness Hospital', 75)
+    2- ('Acc. Hospital', 74)
+    3- ('Term rider', 4)
+    4- ('Adult Disease Hospital', 3)
+    5- ('Inc. Dec. Term rider', 2)
+• Average number of riders purchased with this policy is 0.1628140704
     </t>
   </si>
   <si>
@@ -359,10 +358,11 @@
     1- 0   (count 8)
 • Number of customers charged with extra premium, based on high risk, is 8:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 10)
-    2- ('Acc. Hospital', 8)
-    3- ('Accidental Death', 7)
-• Average number of riders purchased with this policy is 1.9230769231
+    1- ('Sickness Hospital', 6)
+    2- ('Acc. Hospital', 3)
+    3- ('Accidental Death', 1)
+    4- ('Inc. Term rider', 1)
+• Average number of riders purchased with this policy is 1.375
     </t>
   </si>
   <si>
@@ -387,11 +387,11 @@
     1- 0   (count 30)
 • Number of customers charged with extra premium, based on high risk, is 30:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 16)
-    2- ('Acc. Hospital', 11)
-    3- ('Accidental Death', 8)
+    1- ('Sickness Hospital', 22)
+    2- ('Acc. Hospital', 14)
+    3- ('Accidental Death', 10)
     4- ('Adult Disease Hospital', 2)
-• Average number of riders purchased with this policy is 1.7619047619
+• Average number of riders purchased with this policy is 1.6
     </t>
   </si>
   <si>
@@ -419,12 +419,12 @@
     2- 3   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 135:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 66)
-    2- ('Acc. Hospital', 47)
-    3- ('Accidental Death', 41)
-    4- ('M.I.P rider', 10)
-    5- ('Adult Disease Hospital', 4)
-• Average number of riders purchased with this policy is 1.68
+    1- ('Sickness Hospital', 92)
+    2- ('Acc. Hospital', 70)
+    3- ('Accidental Death', 57)
+    4- ('Inc. Term rider', 8)
+    5- ('M.I.P rider', 7)
+• Average number of riders purchased with this policy is 1.7703703704
     </t>
   </si>
   <si>
@@ -453,12 +453,12 @@
     3- 7   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 258:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 123)
-    2- ('Accidental Death', 90)
-    3- ('Acc. Hospital', 89)
-    4- ('M.I.P rider', 13)
-    5- ('Adult Disease Hospital', 8)
-• Average number of riders purchased with this policy is 1.5619047619
+    1- ('Sickness Hospital', 135)
+    2- ('Acc. Hospital', 94)
+    3- ('Accidental Death', 90)
+    4- ('Inc. Term rider', 23)
+    5- ('M.I.P rider', 11)
+• Average number of riders purchased with this policy is 1.4108527132
     </t>
   </si>
   <si>
@@ -486,12 +486,12 @@
     2- 1   (count 5)
 • Number of customers charged with extra premium, based on high risk, is 511:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 245)
-    2- ('Acc. Hospital', 106)
-    3- ('Accidental Death', 98)
-    4- ('Adult Disease Hospital', 8)
-    5- ('M.I.P rider', 6)
-• Average number of riders purchased with this policy is 1.1338199513
+    1- ('Sickness Hospital', 273)
+    2- ('Acc. Hospital', 127)
+    3- ('Accidental Death', 111)
+    4- ('Inc. Term rider', 26)
+    5- ('Adult Disease Hospital', 11)
+• Average number of riders purchased with this policy is 1.0861056751
     </t>
   </si>
   <si>
@@ -519,12 +519,12 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 200:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 107)
-    2- ('Acc. Hospital', 38)
-    3- ('Accidental Death', 19)
-    4- ('Adult Disease Hospital', 3)
-    5- ('M.I.P rider', 1)
-• Average number of riders purchased with this policy is 1.0180722892
+    1- ('Sickness Hospital', 121)
+    2- ('Acc. Hospital', 47)
+    3- ('Accidental Death', 24)
+    4- ('Inc. Term rider', 4)
+    5- ('Adult Disease Hospital', 2)
+• Average number of riders purchased with this policy is 0.995
     </t>
   </si>
   <si>
@@ -553,12 +553,12 @@
     3- 2   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 375:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 123)
-    2- ('Acc. Hospital', 38)
-    3- ('Term rider', 1)
-    4- ('Adult Disease Hospital', 1)
-    5- ('Accidental Death', 1)
-• Average number of riders purchased with this policy is 0.6179775281
+    1- ('Sickness Hospital', 146)
+    2- ('Acc. Hospital', 52)
+    3- ('Inc. Term rider', 18)
+    4- ('Accidental Death', 2)
+    5- ('Adult Disease Hospital', 2)
+• Average number of riders purchased with this policy is 0.5893333333
     </t>
   </si>
   <si>
@@ -659,8 +659,8 @@
     1- 0   (count 22)
 • Number of customers charged with extra premium, based on high risk, is 22:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 2)
-• Average number of riders purchased with this policy is 0.0833333333
+    1- ('Accidental Death', 1)
+• Average number of riders purchased with this policy is 0.0454545455
     </t>
   </si>
   <si>
@@ -712,8 +712,8 @@
     1- 0   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 2:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Accidental Death', 1)
+• Average number of riders purchased with this policy is 0.5
     </t>
   </si>
   <si>
@@ -767,7 +767,7 @@
     1- ('Female Operation', 2)
     2- ('Cancer Dia', 2)
     3- ('Advanced Medical', 1)
-• Average number of riders purchased with this policy is 0.1785714286
+• Average number of riders purchased with this policy is 0.1851851852
     </t>
   </si>
   <si>
@@ -793,9 +793,9 @@
     1- 0   (count 143)
 • Number of customers charged with extra premium, based on high risk, is 143:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 25)
+    1- ('Female Operation', 27)
     2- ('Advanced Medical', 1)
-• Average number of riders purchased with this policy is 0.2148760331
+• Average number of riders purchased with this policy is 0.1958041958
     </t>
   </si>
   <si>
@@ -821,11 +821,11 @@
     1- 0   (count 386)
 • Number of customers charged with extra premium, based on high risk, is 386:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 60)
-    2- ('Advanced Medical', 1)
-    3- ('Family Cancer', 1)
-    4- ('Cancer Dia', 1)
-• Average number of riders purchased with this policy is 0.1852941176
+    1- ('Female Operation', 65)
+    2- ('Advanced Medical', 4)
+    3- ('Cancer Dia', 2)
+    4- ('Cancer Death', 1)
+• Average number of riders purchased with this policy is 0.1865284974
     </t>
   </si>
   <si>
@@ -851,12 +851,11 @@
     1- 0   (count 815)
 • Number of customers charged with extra premium, based on high risk, is 815:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 128)
-    2- ('Cancer Dia', 7)
-    3- ('Advanced Medical', 7)
-    4- ('Family Cancer', 3)
-    5- ('Cancer Death', 1)
-• Average number of riders purchased with this policy is 0.1991814461
+    1- ('Female Operation', 140)
+    2- ('Advanced Medical', 8)
+    3- ('Cancer Dia', 6)
+    4- ('Cancer Death', 1)
+• Average number of riders purchased with this policy is 0.1901840491
     </t>
   </si>
   <si>
@@ -883,12 +882,11 @@
     1- 0   (count 980)
 • Number of customers charged with extra premium, based on high risk, is 980:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 80)
-    2- ('Cancer Dia', 15)
-    3- ('Advanced Medical', 13)
-    4- ('Family Cancer', 5)
-    5- ('Cancer Death', 1)
-• Average number of riders purchased with this policy is 0.1266666667
+    1- ('Female Operation', 89)
+    2- ('Advanced Medical', 15)
+    3- ('Cancer Dia', 11)
+    4- ('Cancer Death', 2)
+• Average number of riders purchased with this policy is 0.1193877551
     </t>
   </si>
   <si>
@@ -914,12 +912,11 @@
     1- 0   (count 247)
 • Number of customers charged with extra premium, based on high risk, is 247:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 24)
+    1- ('Female Operation', 28)
     2- ('Advanced Medical', 7)
-    3- ('Cancer Dia', 7)
-    4- ('Family Cancer', 2)
-    5- ('Cancer Death', 2)
-• Average number of riders purchased with this policy is 0.1728395062
+    3- ('Cancer Dia', 3)
+    4- ('Cancer Death', 2)
+• Average number of riders purchased with this policy is 0.1619433198
     </t>
   </si>
   <si>
@@ -945,12 +942,11 @@
     1- 0   (count 329)
 • Number of customers charged with extra premium, based on high risk, is 329:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 40)
+    1- ('Female Operation', 44)
     2- ('Advanced Medical', 24)
     3- ('Cancer Death', 7)
-    4- ('Cancer Dia', 5)
-    5- ('Family Cancer', 1)
-• Average number of riders purchased with this policy is 0.2460063898
+    4- ('Cancer Dia', 2)
+• Average number of riders purchased with this policy is 0.2340425532
     </t>
   </si>
   <si>
@@ -1096,11 +1092,11 @@
 • Number of customers charged with extra premium, based on high risk, is 105:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Medical Operation', 68)
-    2- ('Outpatient', 45)
-    3- ('Acc. Hospital', 41)
-    4- ('Female Operation', 30)
-    5- ('Advanced Medical', 26)
-• Average number of riders purchased with this policy is 2.4491525424
+    2- ('Outpatient', 48)
+    3- ('Acc. Hospital', 39)
+    4- ('Female Operation', 34)
+    5- ('Discharge Hospital', 19)
+• Average number of riders purchased with this policy is 2.6761904762
     </t>
   </si>
   <si>
@@ -1126,12 +1122,12 @@
     1- 0   (count 418)
 • Number of customers charged with extra premium, based on high risk, is 418:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 265)
-    2- ('Outpatient', 163)
-    3- ('Acc. Hospital', 152)
-    4- ('Female Operation', 131)
-    5- ('Discharge Hospital', 87)
-• Average number of riders purchased with this policy is 2.9130434783
+    1- ('Medical Operation', 288)
+    2- ('Outpatient', 177)
+    3- ('Acc. Hospital', 164)
+    4- ('Female Operation', 140)
+    5- ('Discharge Hospital', 95)
+• Average number of riders purchased with this policy is 2.9282296651
     </t>
   </si>
   <si>
@@ -1157,12 +1153,12 @@
     1- 0   (count 909)
 • Number of customers charged with extra premium, based on high risk, is 909:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 502)
-    2- ('Acc. Hospital', 305)
-    3- ('Outpatient', 286)
-    4- ('Female Operation', 275)
-    5- ('Advanced Medical', 191)
-• Average number of riders purchased with this policy is 2.6618705036
+    1- ('Medical Operation', 550)
+    2- ('Acc. Hospital', 331)
+    3- ('Outpatient', 300)
+    4- ('Female Operation', 295)
+    5- ('Advanced Medical', 209)
+• Average number of riders purchased with this policy is 2.6160616062
     </t>
   </si>
   <si>
@@ -1189,12 +1185,12 @@
     1- 0   (count 1281)
 • Number of customers charged with extra premium, based on high risk, is 1,281:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 671)
-    2- ('Acc. Hospital', 336)
-    3- ('Outpatient', 310)
-    4- ('Female Operation', 300)
-    5- ('Advanced Medical', 297)
-• Average number of riders purchased with this policy is 2.1826758148
+    1- ('Medical Operation', 760)
+    2- ('Acc. Hospital', 378)
+    3- ('Outpatient', 344)
+    4- ('Female Operation', 317)
+    5- ('Advanced Medical', 313)
+• Average number of riders purchased with this policy is 2.1569086651
     </t>
   </si>
   <si>
@@ -1221,12 +1217,12 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 1,839:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 877)
-    2- ('Acc. Hospital', 504)
-    3- ('Advanced Medical', 430)
-    4- ('Outpatient', 338)
-    5- ('Female Operation', 260)
-• Average number of riders purchased with this policy is 1.7983539095
+    1- ('Medical Operation', 952)
+    2- ('Acc. Hospital', 549)
+    3- ('Advanced Medical', 462)
+    4- ('Outpatient', 366)
+    5- ('Female Operation', 278)
+• Average number of riders purchased with this policy is 1.7884719956
     </t>
   </si>
   <si>
@@ -1252,12 +1248,12 @@
     1- 0   (count 840)
 • Number of customers charged with extra premium, based on high risk, is 840:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Medical Operation', 357)
-    2- ('Advanced Medical', 227)
-    3- ('Acc. Hospital', 189)
-    4- ('Outpatient', 126)
-    5- ('Adult Disease Hospital', 93)
-• Average number of riders purchased with this policy is 1.5657726692
+    1- ('Medical Operation', 382)
+    2- ('Advanced Medical', 238)
+    3- ('Acc. Hospital', 203)
+    4- ('Outpatient', 138)
+    5- ('Female Operation', 94)
+• Average number of riders purchased with this policy is 1.5428571429
     </t>
   </si>
   <si>
@@ -1284,12 +1280,12 @@
     2- 1   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 1,057:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Advanced Medical', 479)
-    2- ('Medical Operation', 187)
-    3- ('Adult Disease Hospital', 143)
-    4- ('Acc. Hospital', 130)
-    5- ('Cancer Hospital', 107)
-• Average number of riders purchased with this policy is 1.3017578125
+    1- ('Advanced Medical', 485)
+    2- ('Medical Operation', 196)
+    3- ('Adult Disease Hospital', 154)
+    4- ('Acc. Hospital', 136)
+    5- ('Cancer Hospital', 110)
+• Average number of riders purchased with this policy is 1.3159886471
     </t>
   </si>
   <si>
@@ -1315,7 +1311,7 @@
     1- 0   (count 15)
 • Number of customers charged with extra premium, based on high risk, is 15:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 11)
+    1- ('Female Operation', 15)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -1341,7 +1337,7 @@
     1- 0   (count 86)
 • Number of customers charged with extra premium, based on high risk, is 86:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 74)
+    1- ('Female Operation', 86)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -1368,7 +1364,7 @@
     1- 0   (count 126)
 • Number of customers charged with extra premium, based on high risk, is 126:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 105)
+    1- ('Female Operation', 126)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -1396,7 +1392,7 @@
     1- 0   (count 140)
 • Number of customers charged with extra premium, based on high risk, is 140:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 119)
+    1- ('Female Operation', 140)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -1423,8 +1419,8 @@
     1- 0   (count 117)
 • Number of customers charged with extra premium, based on high risk, is 117:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 96)
-• Average number of riders purchased with this policy is 0.9896907216
+    1- ('Female Operation', 116)
+• Average number of riders purchased with this policy is 0.9914529915
     </t>
   </si>
   <si>
@@ -1449,7 +1445,7 @@
     1- 0   (count 44)
 • Number of customers charged with extra premium, based on high risk, is 44:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 41)
+    1- ('Female Operation', 44)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -1475,7 +1471,7 @@
     1- 0   (count 12)
 • Number of customers charged with extra premium, based on high risk, is 12:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Female Operation', 11)
+    1- ('Female Operation', 12)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -1502,8 +1498,8 @@
     1- 0   (count 3)
 • Number of customers charged with extra premium, based on high risk, is 3:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Family Medical', 1)
-• Average number of riders purchased with this policy is 0.25
+    - No Riders Against This Policy 
+• Average number of riders purchased with this policy is 0.0
     </t>
   </si>
   <si>
@@ -1531,7 +1527,7 @@
 • Number of customers charged with extra premium, based on high risk, is 31:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 5)
-• Average number of riders purchased with this policy is 0.1666666667
+• Average number of riders purchased with this policy is 0.1612903226
     </t>
   </si>
   <si>
@@ -1561,7 +1557,7 @@
 • Number of customers charged with extra premium, based on high risk, is 54:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 8)
-• Average number of riders purchased with this policy is 0.1538461538
+• Average number of riders purchased with this policy is 0.1481481481
     </t>
   </si>
   <si>
@@ -1591,7 +1587,7 @@
 • Number of customers charged with extra premium, based on high risk, is 70:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 6)
-• Average number of riders purchased with this policy is 0.0882352941
+• Average number of riders purchased with this policy is 0.0857142857
     </t>
   </si>
   <si>
@@ -1618,8 +1614,8 @@
     1- 0   (count 75)
 • Number of customers charged with extra premium, based on high risk, is 75:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Family Medical', 11)
-• Average number of riders purchased with this policy is 0.1549295775
+    1- ('Family Medical', 14)
+• Average number of riders purchased with this policy is 0.1866666667
     </t>
   </si>
   <si>
@@ -1646,7 +1642,7 @@
 • Number of customers charged with extra premium, based on high risk, is 22:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Family Medical', 3)
-• Average number of riders purchased with this policy is 0.1304347826
+• Average number of riders purchased with this policy is 0.1363636364
     </t>
   </si>
   <si>
@@ -1902,8 +1898,9 @@
     1- 0   (count 3)
 • Number of customers charged with extra premium, based on high risk, is 3:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 3)
+    2- ('Sickness Hospital', 3)
+• Average number of riders purchased with this policy is 2.0
     </t>
   </si>
   <si>
@@ -1929,8 +1926,10 @@
     2- 5   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 11:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 2)
+    2- ('Sickness Hospital', 2)
+    3- ('Adult Disease Hospital', 1)
+• Average number of riders purchased with this policy is 0.4545454545
     </t>
   </si>
   <si>
@@ -1958,8 +1957,11 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 21:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Accidental Death', 1)
+    2- ('Acc. Hospital', 1)
+    3- ('Sickness Hospital', 1)
+    4- ('Adult Disease Hospital', 1)
+• Average number of riders purchased with this policy is 0.1904761905
     </t>
   </si>
   <si>
@@ -2031,8 +2033,8 @@
     1- 0   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 1:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Inc. Term rider', 2)
+• Average number of riders purchased with this policy is 2.0
     </t>
   </si>
   <si>
@@ -2055,8 +2057,8 @@
     1- 0   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 2:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Inc. Term rider', 3)
+• Average number of riders purchased with this policy is 1.5
     </t>
   </si>
   <si>
@@ -2078,8 +2080,7 @@
     1- 0   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 2:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 1)
-    2- ('Sickness Hospital', 1)
+    1- ('Inc. Term rider', 2)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -2104,31 +2105,8 @@
     1- 0   (count 3)
 • Number of customers charged with extra premium, based on high risk, is 3:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
-• Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 1)
-    2- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.5
+    1- ('Inc. Term rider', 2)
+• Average number of riders purchased with this policy is 0.6666666667
     </t>
   </si>
   <si>
@@ -2157,12 +2135,12 @@
     3- 2   (count 6)
 • Number of customers charged with extra premium, based on high risk, is 819:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Term rider', 148)
-    2- ('Acc. Hospital', 134)
-    3- ('Sickness Hospital', 133)
-    4- ('Accidental Death', 82)
+    1- ('Term rider', 192)
+    2- ('Acc. Hospital', 146)
+    3- ('Sickness Hospital', 145)
+    4- ('Accidental Death', 79)
     5- ('Adult Disease Hospital', 1)
-• Average number of riders purchased with this policy is 1.3643835616
+• Average number of riders purchased with this policy is 0.6874236874
     </t>
   </si>
   <si>
@@ -2190,12 +2168,12 @@
     3- 2   (count 9)
 • Number of customers charged with extra premium, based on high risk, is 1,586:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Term rider', 220)
-    2- ('Sickness Hospital', 160)
+    1- ('Term rider', 237)
+    2- ('Sickness Hospital', 172)
     3- ('Acc. Hospital', 153)
-    4- ('Accidental Death', 89)
+    4- ('Accidental Death', 82)
     5- ('Adult Disease Hospital', 1)
-• Average number of riders purchased with this policy is 1.0080906149
+• Average number of riders purchased with this policy is 0.4066834805
     </t>
   </si>
   <si>
@@ -2224,12 +2202,12 @@
     3- 2   (count 10)
 • Number of customers charged with extra premium, based on high risk, is 1,500:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Term rider', 213)
-    2- ('Sickness Hospital', 134)
-    3- ('Acc. Hospital', 130)
-    4- ('Accidental Death', 80)
+    1- ('Term rider', 245)
+    2- ('Sickness Hospital', 152)
+    3- ('Acc. Hospital', 139)
+    4- ('Accidental Death', 81)
     5- ('Adult Disease Hospital', 1)
-• Average number of riders purchased with this policy is 1.0919765166
+• Average number of riders purchased with this policy is 0.412
     </t>
   </si>
   <si>
@@ -2258,12 +2236,12 @@
     3- 2   (count 8)
 • Number of customers charged with extra premium, based on high risk, is 1,644:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Term rider', 125)
-    2- ('Sickness Hospital', 119)
-    3- ('Acc. Hospital', 114)
-    4- ('Accidental Death', 61)
-    5- ('M.I.P rider', 1)
-• Average number of riders purchased with this policy is 1.0294117647
+    1- ('Term rider', 156)
+    2- ('Sickness Hospital', 135)
+    3- ('Acc. Hospital', 127)
+    4- ('Accidental Death', 76)
+    5- ('Endowment rider', 1)
+• Average number of riders purchased with this policy is 0.301703163
     </t>
   </si>
   <si>
@@ -2291,11 +2269,12 @@
     3- 2   (count 6)
 • Number of customers charged with extra premium, based on high risk, is 838:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 90)
-    2- ('Acc. Hospital', 81)
-    3- ('Term rider', 80)
-    4- ('Accidental Death', 42)
-• Average number of riders purchased with this policy is 0.9184952978
+    1- ('Sickness Hospital', 97)
+    2- ('Acc. Hospital', 89)
+    3- ('Term rider', 86)
+    4- ('Accidental Death', 51)
+    5- ('Adult Disease Hospital', 1)
+• Average number of riders purchased with this policy is 0.3866348449
     </t>
   </si>
   <si>
@@ -2325,10 +2304,10 @@
 • Top riders against this policy (Policy Type, Count):      
     1- ('Acc. Hospital', 22)
     2- ('Sickness Hospital', 22)
-    3- ('Term rider', 6)
+    3- ('Term rider', 7)
     4- ('Accidental Death', 4)
     5- ('Adult Disease Hospital', 2)
-• Average number of riders purchased with this policy is 0.9655172414
+• Average number of riders purchased with this policy is 0.4596774194
     </t>
   </si>
   <si>
@@ -2355,10 +2334,10 @@
     2- 1   (count 3)
 • Number of customers charged with extra premium, based on high risk, is 87:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 19)
-    2- ('Acc. Hospital', 18)
+    1- ('Sickness Hospital', 22)
+    2- ('Acc. Hospital', 21)
     3- ('Term rider', 2)
-• Average number of riders purchased with this policy is 0.7647058824
+• Average number of riders purchased with this policy is 0.5172413793
     </t>
   </si>
   <si>
@@ -2439,7 +2418,7 @@
 • Top riders against this policy (Policy Type, Count):      
     1- ('Acc. Hospital', 1)
     2- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.1
+• Average number of riders purchased with this policy is 0.0952380952
     </t>
   </si>
   <si>
@@ -2500,7 +2479,7 @@
 • Top riders against this policy (Policy Type, Count):      
     1- ('Acc. Hospital', 1)
     2- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.0350877193
+• Average number of riders purchased with this policy is 0.0327868852
     </t>
   </si>
   <si>
@@ -2616,8 +2595,8 @@
     1- 0   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 1:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 1)
+• Average number of riders purchased with this policy is 1.0
     </t>
   </si>
   <si>
@@ -2638,8 +2617,8 @@
     1- 0   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 1:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 1)
+• Average number of riders purchased with this policy is 1.0
     </t>
   </si>
   <si>
@@ -2663,8 +2642,8 @@
     1- 0   (count 6)
 • Number of customers charged with extra premium, based on high risk, is 6:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 6)
+• Average number of riders purchased with this policy is 1.0
     </t>
   </si>
   <si>
@@ -2689,7 +2668,7 @@
     1- 0   (count 9)
 • Number of customers charged with extra premium, based on high risk, is 9:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 1)
+    1- ('Acc. Hospital', 9)
 • Average number of riders purchased with this policy is 1.0
     </t>
   </si>
@@ -2714,8 +2693,8 @@
     1- 0   (count 3)
 • Number of customers charged with extra premium, based on high risk, is 3:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 3)
+• Average number of riders purchased with this policy is 1.0
     </t>
   </si>
   <si>
@@ -2740,8 +2719,8 @@
     1- 0   (count 5)
 • Number of customers charged with extra premium, based on high risk, is 5:
 • Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
+    1- ('Acc. Hospital', 5)
+• Average number of riders purchased with this policy is 1.0
     </t>
   </si>
   <si>
@@ -2761,28 +2740,6 @@
 • The most common numbers of APL loan:
     1- 0   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 1:
-• Top riders against this policy (Policy Type, Count):      
-    - No Riders Against This Policy 
-• Average number of riders purchased with this policy is 0.0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Premium paid:
-    1- Total premium is 0 Yen
-    2- Average premium paid is 0 Yen 
-•Settlement amount:
-    1- Total settlement is 0 Yen
-    2- Average settlement paid is 0 Yen 
-• Average Policy retention period 0 Months 
-• The most utilized application channel: 
-    - No Application Channel used
-• The most common termination causes:  
-    - No Termination Reason
-• The most common prefectures:
-    - No Perfecture Against This Policy 
-• The most common numbers of APL loan:
-    - No APL LOAN 
-• Number of customers charged with extra premium, based on high risk, is 0:
 • Top riders against this policy (Policy Type, Count):      
     1- ('Accidental Death', 2)
     2- ('Acc. Hospital', 2)
@@ -2812,10 +2769,10 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 3:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 5)
-    2- ('Acc. Hospital', 5)
-    3- ('Sickness Hospital', 5)
-• Average number of riders purchased with this policy is 5.0
+    1- ('Sickness Hospital', 4)
+    2- ('Accidental Death', 3)
+    3- ('Acc. Hospital', 3)
+• Average number of riders purchased with this policy is 3.3333333333
     </t>
   </si>
   <si>
@@ -2840,10 +2797,10 @@
     2- 5   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 9:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 6)
-    2- ('Sickness Hospital', 6)
-    3- ('Accidental Death', 4)
-• Average number of riders purchased with this policy is 3.2
+    1- ('Acc. Hospital', 11)
+    2- ('Sickness Hospital', 11)
+    3- ('Accidental Death', 9)
+• Average number of riders purchased with this policy is 3.4444444444
     </t>
   </si>
   <si>
@@ -2868,10 +2825,10 @@
     2- 1   (count 1)
 • Number of customers charged with extra premium, based on high risk, is 7:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Acc. Hospital', 6)
-    2- ('Sickness Hospital', 6)
-    3- ('Accidental Death', 4)
-• Average number of riders purchased with this policy is 3.2
+    1- ('Sickness Hospital', 4)
+    2- ('Acc. Hospital', 3)
+    3- ('Accidental Death', 2)
+• Average number of riders purchased with this policy is 1.2857142857
     </t>
   </si>
   <si>
@@ -2919,10 +2876,10 @@
     1- 0   (count 4)
 • Number of customers charged with extra premium, based on high risk, is 4:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Sickness Hospital', 3)
+    1- ('Sickness Hospital', 4)
     2- ('Accidental Death', 2)
     3- ('Acc. Hospital', 2)
-• Average number of riders purchased with this policy is 2.3333333333
+• Average number of riders purchased with this policy is 2.0
     </t>
   </si>
   <si>
@@ -2945,10 +2902,8 @@
     1- 0   (count 2)
 • Number of customers charged with extra premium, based on high risk, is 2:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 1)
-    2- ('Acc. Hospital', 1)
-    3- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 1.0
+    - No Riders Against This Policy 
+• Average number of riders purchased with this policy is 0.0
     </t>
   </si>
   <si>
@@ -3004,11 +2959,11 @@
     1- 0   (count 17)
 • Number of customers charged with extra premium, based on high risk, is 17:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 9)
+    1- ('Accidental Death', 6)
     2- ('Acc. Hospital', 5)
     3- ('Sickness Hospital', 5)
-    4- ('M.I.P rider', 3)
-• Average number of riders purchased with this policy is 1.1578947368
+    4- ('M.I.P rider', 2)
+• Average number of riders purchased with this policy is 1.0588235294
     </t>
   </si>
   <si>
@@ -3035,11 +2990,11 @@
     1- 0   (count 31)
 • Number of customers charged with extra premium, based on high risk, is 31:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 6)
-    2- ('Acc. Hospital', 5)
-    3- ('Sickness Hospital', 5)
+    1- ('Accidental Death', 7)
+    2- ('Acc. Hospital', 6)
+    3- ('Sickness Hospital', 6)
     4- ('Term rider', 1)
-• Average number of riders purchased with this policy is 0.53125
+• Average number of riders purchased with this policy is 0.6451612903
     </t>
   </si>
   <si>
@@ -3065,12 +3020,10 @@
     1- 0   (count 29)
 • Number of customers charged with extra premium, based on high risk, is 29:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 6)
-    2- ('Acc. Hospital', 6)
-    3- ('Sickness Hospital', 6)
-    4- ('Adult Disease Hospital', 1)
-    5- ('Term rider', 1)
-• Average number of riders purchased with this policy is 0.7142857143
+    1- ('Accidental Death', 5)
+    2- ('Acc. Hospital', 5)
+    3- ('Sickness Hospital', 5)
+• Average number of riders purchased with this policy is 0.5172413793
     </t>
   </si>
   <si>
@@ -3098,7 +3051,7 @@
     1- ('Accidental Death', 1)
     2- ('Acc. Hospital', 1)
     3- ('Sickness Hospital', 1)
-• Average number of riders purchased with this policy is 0.2
+• Average number of riders purchased with this policy is 0.2307692308
     </t>
   </si>
   <si>
@@ -3127,7 +3080,7 @@
 • Top riders against this policy (Policy Type, Count):      
     1- ('Acc. Hospital', 4)
     2- ('Sickness Hospital', 4)
-• Average number of riders purchased with this policy is 0.1951219512
+• Average number of riders purchased with this policy is 0.1818181818
     </t>
   </si>
   <si>
@@ -3180,7 +3133,7 @@
     1- ('Acc. Hospital', 3)
     2- ('Sickness Hospital', 3)
     3- ('Accidental Death', 2)
-• Average number of riders purchased with this policy is 0.6153846154
+• Average number of riders purchased with this policy is 0.115942029
     </t>
   </si>
   <si>
@@ -3206,11 +3159,11 @@
     1- 0   (count 80)
 • Number of customers charged with extra premium, based on high risk, is 80:
 • Top riders against this policy (Policy Type, Count):      
-    1- ('Accidental Death', 2)
-    2- ('Acc. Hospital', 2)
-    3- ('Sickness Hospital', 2)
+    1- ('Accidental Death', 3)
+    2- ('Acc. Hospital', 3)
+    3- ('Sickness Hospital', 3)
     4- ('Term rider', 1)
-• Average number of riders purchased with this policy is 0.2916666667
+• Average number of riders purchased with this policy is 0.125
     </t>
   </si>
   <si>
@@ -3787,13 +3740,13 @@
         <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P2" t="s">
         <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R2" t="s">
         <v>43</v>
@@ -3805,13 +3758,13 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3858,31 +3811,31 @@
         <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" t="s">
         <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T3" t="s">
         <v>90</v>
       </c>
       <c r="U3" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -3929,31 +3882,31 @@
         <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P4" t="s">
         <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R4" t="s">
         <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T4" t="s">
         <v>90</v>
       </c>
       <c r="U4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4000,31 +3953,31 @@
         <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>
       </c>
       <c r="S5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T5" t="s">
         <v>90</v>
       </c>
       <c r="U5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4071,31 +4024,31 @@
         <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P6" t="s">
         <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T6" t="s">
         <v>90</v>
       </c>
       <c r="U6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -4142,31 +4095,31 @@
         <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P7" t="s">
         <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R7" t="s">
         <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T7" t="s">
         <v>90</v>
       </c>
       <c r="U7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -4207,37 +4160,37 @@
         <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
         <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s">
         <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R8" t="s">
         <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T8" t="s">
         <v>90</v>
       </c>
       <c r="U8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
